--- a/Ведомость_17.xlsx
+++ b/Ведомость_17.xlsx
@@ -14,30 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="26">
   <si>
     <t>ФИО</t>
   </si>
   <si>
     <t>Посещаемость</t>
-  </si>
-  <si>
-    <t>хор</t>
-  </si>
-  <si>
-    <t>отл</t>
-  </si>
-  <si>
-    <t>&gt;71</t>
-  </si>
-  <si>
-    <t>&gt;86</t>
-  </si>
-  <si>
-    <t>&gt;60</t>
-  </si>
-  <si>
-    <t>удвл</t>
   </si>
   <si>
     <t>Асташев Никита Анатольевич</t>
@@ -226,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,9 +229,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -274,18 +253,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -582,21 +550,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.7109375" style="9" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="38.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="8" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -627,7 +595,7 @@
       <c r="I1" s="4">
         <v>43040</v>
       </c>
-      <c r="J1" s="11">
+      <c r="J1" s="10">
         <v>43047</v>
       </c>
       <c r="K1" s="5">
@@ -645,7 +613,7 @@
       <c r="O1" s="5">
         <v>43082</v>
       </c>
-      <c r="P1" s="11">
+      <c r="P1" s="10">
         <v>43089</v>
       </c>
       <c r="Q1" s="3">
@@ -655,1294 +623,1270 @@
         <v>1</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>8</v>
+      <c r="A2" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="7"/>
-      <c r="R2" s="8">
-        <f>10-CEILING(10*COUNTIF(B2:P2,"н")/14,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="12">
+      <c r="R2" s="11">
+        <f>10-10*COUNTIF(B2:P2,"н")/(COUNTA(B2:P2)+COUNTBLANK(B2:P2))</f>
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S2" s="11">
         <f>IF(ISNUMBER(J2),J2,0)*POWER(1.1,COUNTIF(E2:I2,1))+IF(ISNUMBER(P2),P2,0)*POWER(1.1,COUNTIF(K2:O2,1))+R2+Q2</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12">
         <f>S2+T2</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V2" s="12" t="str">
         <f>IF(U2&gt;86,"отлично",IF(U2&gt;71,"хорошо",IF(U2&gt;60,"удвл","неуд")))</f>
         <v>неуд</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="10"/>
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9"/>
       <c r="C3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="7"/>
-      <c r="R3" s="8">
-        <f t="shared" ref="R3:R20" si="0">10-CEILING(10*COUNTIF(B3:P3,"н")/14,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="12">
+      <c r="R3" s="11">
+        <f t="shared" ref="R3:R20" si="0">10-10*COUNTIF(B3:P3,"н")/(COUNTA(B3:P3)+COUNTBLANK(B3:P3))</f>
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S3" s="11">
         <f t="shared" ref="S3:S20" si="1">IF(ISNUMBER(J3),J3,0)*POWER(1.1,COUNTIF(E3:I3,1))+IF(ISNUMBER(P3),P3,0)*POWER(1.1,COUNTIF(K3:O3,1))+R3+Q3</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13">
-        <f t="shared" ref="U3:V20" si="2">S3+T3</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12">
+        <f t="shared" ref="U3:U20" si="2">S3+T3</f>
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V3" s="12" t="str">
         <f t="shared" ref="V3:V20" si="3">IF(U3&gt;86,"отлично",IF(U3&gt;71,"хорошо",IF(U3&gt;60,"удвл","неуд")))</f>
         <v>неуд</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>10</v>
+      <c r="A4" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="7"/>
-      <c r="R4" s="8">
+      <c r="R4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S4" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V4" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>11</v>
+      <c r="A5" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7"/>
-      <c r="R5" s="8">
+      <c r="R5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S5" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V5" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>12</v>
+      <c r="A6" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7"/>
-      <c r="R6" s="8">
+      <c r="R6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S6" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V6" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>13</v>
+      <c r="A7" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7"/>
-      <c r="R7" s="8">
+      <c r="R7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S7" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V7" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>14</v>
+      <c r="A8" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7"/>
-      <c r="R8" s="8">
+      <c r="R8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S8" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V8" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>15</v>
+      <c r="A9" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7"/>
-      <c r="R9" s="8">
+      <c r="R9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V9" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>16</v>
+      <c r="A10" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="7"/>
-      <c r="R10" s="8">
+      <c r="R10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V10" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>17</v>
+      <c r="A11" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7"/>
-      <c r="R11" s="8">
+      <c r="R11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S11" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V11" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>18</v>
+      <c r="A12" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7"/>
-      <c r="R12" s="8">
+      <c r="R12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S12" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>19</v>
+      <c r="A13" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="7"/>
-      <c r="R13" s="8">
+      <c r="R13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S13" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="10"/>
+      <c r="A14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="9"/>
       <c r="C14" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7"/>
-      <c r="R14" s="8">
+      <c r="R14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="10"/>
+      <c r="A15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9"/>
       <c r="C15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7"/>
-      <c r="R15" s="8">
+      <c r="R15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S15" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>22</v>
+      <c r="A16" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="7"/>
-      <c r="R16" s="8">
+      <c r="R16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="10"/>
+      <c r="A17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="9"/>
       <c r="C17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7"/>
-      <c r="R17" s="8">
+      <c r="R17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S17" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>24</v>
+      <c r="A18" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7"/>
-      <c r="R18" s="8">
+      <c r="R18" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S18" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>25</v>
+      <c r="A19" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="7"/>
-      <c r="R19" s="8">
+      <c r="R19" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S19" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V19" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>26</v>
+      <c r="A20" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q20" s="7"/>
-      <c r="R20" s="8">
+      <c r="R20" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="12">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="S20" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="13" t="str">
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="V20" s="12" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Ведомость_17.xlsx
+++ b/Ведомость_17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18960" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="18960" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ведомость" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="34">
   <si>
     <t>ФИО</t>
   </si>
@@ -47,18 +47,12 @@
     <t>Ислибаев Альберт Вадимович</t>
   </si>
   <si>
-    <t>Леухин Алексей Дмитриевич</t>
-  </si>
-  <si>
     <t>Зайнуллина Алина Маратовна</t>
   </si>
   <si>
     <t>Кириллов Кирилл Сергеевич</t>
   </si>
   <si>
-    <t>Остапенко Сергей Алексеевич</t>
-  </si>
-  <si>
     <t>Семестр</t>
   </si>
   <si>
@@ -117,6 +111,12 @@
   </si>
   <si>
     <t>префиксная сумма на любых массивах размером степени 2</t>
+  </si>
+  <si>
+    <t>cuda lec_4</t>
+  </si>
+  <si>
+    <t>норма вектора на thrust</t>
   </si>
 </sst>
 </file>
@@ -587,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,16 +660,16 @@
         <v>1</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
@@ -678,58 +678,56 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="9">
-        <f t="shared" ref="R2:R19" si="0">10-10*COUNTIF(B2:P2,"н")/(COUNTA(B2:P2)+COUNTBLANK(B2:P2))</f>
-        <v>1.3333333333333339</v>
+        <f t="shared" ref="R2:R17" si="0">10-10*COUNTIF(B2:P2,"н")/(COUNTA(B2:P2)+COUNTBLANK(B2:P2))</f>
+        <v>2</v>
       </c>
       <c r="S2" s="9">
         <f>IF(ISNUMBER(J2),J2,0)*POWER(1.125,COUNTIF(E2:I2,1))+IF(ISNUMBER(P2),P2,0)*POWER(1.125,COUNTIF(K2:O2,1))+R2+Q2</f>
-        <v>1.3333333333333339</v>
+        <v>2</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="10">
-        <f t="shared" ref="U2:U19" si="1">S2+T2</f>
-        <v>1.3333333333333339</v>
+        <f t="shared" ref="U2:U17" si="1">S2+T2</f>
+        <v>2</v>
       </c>
       <c r="V2" s="10" t="str">
         <f>IF(U2&gt;85,"отлично",IF(U2&gt;70,"хорошо",IF(U2&gt;55,"удвл","неуд")))</f>
@@ -738,7 +736,7 @@
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -746,49 +744,47 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="S3" s="9">
-        <f t="shared" ref="S3:S19" si="2">IF(ISNUMBER(J3),J3,0)*POWER(1.125,COUNTIF(E3:I3,1))+IF(ISNUMBER(P3),P3,0)*POWER(1.1,COUNTIF(K3:O3,1))+R3+Q3</f>
-        <v>4</v>
+        <f t="shared" ref="S3:S17" si="2">IF(ISNUMBER(J3),J3,0)*POWER(1.125,COUNTIF(E3:I3,1))+IF(ISNUMBER(P3),P3,0)*POWER(1.1,COUNTIF(K3:O3,1))+R3+Q3</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="V3" s="10" t="str">
-        <f t="shared" ref="V3:V19" si="3">IF(U3&gt;85,"отлично",IF(U3&gt;70,"хорошо",IF(U3&gt;55,"удвл","неуд")))</f>
+        <f t="shared" ref="V3:V17" si="3">IF(U3&gt;85,"отлично",IF(U3&gt;70,"хорошо",IF(U3&gt;55,"удвл","неуд")))</f>
         <v>неуд</v>
       </c>
     </row>
@@ -798,46 +794,46 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="9">
@@ -860,58 +856,56 @@
     </row>
     <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="9">
         <f t="shared" si="0"/>
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="2"/>
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10">
         <f t="shared" si="1"/>
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="V5" s="10" t="str">
         <f t="shared" si="3"/>
@@ -920,56 +914,54 @@
     </row>
     <row r="6" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="9">
         <f t="shared" si="0"/>
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" si="2"/>
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10">
         <f t="shared" si="1"/>
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="V6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -978,56 +970,54 @@
     </row>
     <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="S7" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="V7" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1036,50 +1026,50 @@
     </row>
     <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="9">
@@ -1106,46 +1096,46 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="9">
@@ -1172,46 +1162,46 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="9">
@@ -1238,44 +1228,44 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="9">
@@ -1298,50 +1288,50 @@
     </row>
     <row r="12" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="9">
@@ -1368,46 +1358,46 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="9">
@@ -1430,60 +1420,64 @@
     </row>
     <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.66666666666666607</v>
       </c>
       <c r="S14" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0.66666666666666607</v>
       </c>
       <c r="T14" s="10"/>
       <c r="U14" s="10">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0.66666666666666607</v>
       </c>
       <c r="V14" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1492,62 +1486,56 @@
     </row>
     <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="9">
         <f t="shared" si="0"/>
-        <v>1.3333333333333339</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="S15" s="9">
         <f t="shared" si="2"/>
-        <v>1.3333333333333339</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10">
         <f t="shared" si="1"/>
-        <v>1.3333333333333339</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="V15" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1556,50 +1544,50 @@
     </row>
     <row r="16" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="9">
@@ -1622,186 +1610,58 @@
     </row>
     <row r="17" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="9">
         <f t="shared" si="0"/>
-        <v>2.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="S17" s="9">
         <f t="shared" si="2"/>
-        <v>2.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="T17" s="10"/>
       <c r="U17" s="10">
         <f t="shared" si="1"/>
-        <v>2.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="V17" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>неуд</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="9">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666607</v>
-      </c>
-      <c r="S18" s="9">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666607</v>
-      </c>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666607</v>
-      </c>
-      <c r="V18" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>неуд</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="9">
-        <f t="shared" si="0"/>
-        <v>2.666666666666667</v>
-      </c>
-      <c r="S19" s="9">
-        <f t="shared" si="2"/>
-        <v>2.666666666666667</v>
-      </c>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10">
-        <f t="shared" si="1"/>
-        <v>2.666666666666667</v>
-      </c>
-      <c r="V19" s="10" t="str">
         <f t="shared" si="3"/>
         <v>неуд</v>
       </c>
@@ -1817,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,33 +1691,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Ведомость_17.xlsx
+++ b/Ведомость_17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18960" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="18960" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Ведомость" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="34">
   <si>
     <t>ФИО</t>
   </si>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +868,9 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
@@ -975,12 +977,16 @@
       <c r="B7" s="7"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1679,7 +1685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/Ведомость_17.xlsx
+++ b/Ведомость_17.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="34">
   <si>
     <t>ФИО</t>
   </si>
@@ -590,7 +590,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,7 +1504,9 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I15" s="5" t="s">
         <v>13</v>
       </c>

--- a/Ведомость_17.xlsx
+++ b/Ведомость_17.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="34">
   <si>
     <t>ФИО</t>
   </si>
@@ -590,7 +590,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,9 +745,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
@@ -772,16 +770,16 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="9">
         <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="S3" s="9">
         <f t="shared" ref="S3:S17" si="2">IF(ISNUMBER(J3),J3,0)*POWER(1.125,COUNTIF(E3:I3,1))+IF(ISNUMBER(P3),P3,0)*POWER(1.1,COUNTIF(K3:O3,1))+R3+Q3</f>
-        <v>4.666666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10">
         <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="V3" s="10" t="str">
         <f t="shared" ref="V3:V17" si="3">IF(U3&gt;85,"отлично",IF(U3&gt;70,"хорошо",IF(U3&gt;55,"удвл","неуд")))</f>
@@ -871,9 +869,7 @@
       <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
         <v>13</v>
       </c>
@@ -898,16 +894,16 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="V5" s="10" t="str">
         <f t="shared" si="3"/>
@@ -927,9 +923,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
         <v>13</v>
       </c>
@@ -954,16 +948,16 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="V6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -987,9 +981,7 @@
       <c r="H7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1014,16 +1006,16 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="9">
         <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="S7" s="9">
         <f t="shared" si="2"/>
-        <v>4.666666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10">
         <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="V7" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1507,9 +1499,7 @@
       <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1534,16 +1524,16 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="9">
         <f t="shared" si="0"/>
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="S15" s="9">
         <f t="shared" si="2"/>
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10">
         <f t="shared" si="1"/>
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="V15" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1631,9 +1621,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
         <v>13</v>
       </c>
@@ -1658,16 +1646,16 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="9">
         <f t="shared" si="0"/>
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="S17" s="9">
         <f t="shared" si="2"/>
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="T17" s="10"/>
       <c r="U17" s="10">
         <f t="shared" si="1"/>
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="V17" s="10" t="str">
         <f t="shared" si="3"/>

--- a/Ведомость_17.xlsx
+++ b/Ведомость_17.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="34">
   <si>
     <t>ФИО</t>
   </si>
@@ -239,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,6 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -589,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="S2" s="9">
-        <f>IF(ISNUMBER(J2),J2,0)*POWER(1.125,COUNTIF(E2:I2,1))+IF(ISNUMBER(P2),P2,0)*POWER(1.125,COUNTIF(K2:O2,1))+R2+Q2</f>
+        <f>IF(ISNUMBER(J2),J2,0)*9+(3*COUNTIF(E2:I2,"+"))+IF(ISNUMBER(P2),P2,0)*9+(3*COUNTIF(K2:O2,"+"))+R2+Q2</f>
         <v>2</v>
       </c>
       <c r="T2" s="10"/>
@@ -746,8 +747,8 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
-        <v>13</v>
+      <c r="J3" s="5">
+        <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>13</v>
@@ -770,16 +771,16 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="9">
         <f t="shared" si="0"/>
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="S3" s="9">
-        <f t="shared" ref="S3:S17" si="2">IF(ISNUMBER(J3),J3,0)*POWER(1.125,COUNTIF(E3:I3,1))+IF(ISNUMBER(P3),P3,0)*POWER(1.1,COUNTIF(K3:O3,1))+R3+Q3</f>
-        <v>5.333333333333333</v>
+        <f t="shared" ref="S3:S17" si="2">IF(ISNUMBER(J3),J3,0)*9+(3*COUNTIF(E3:I3,"+"))+IF(ISNUMBER(P3),P3,0)*9+(3*COUNTIF(K3:O3,"+"))+R3+Q3</f>
+        <v>15</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10">
         <f t="shared" si="1"/>
-        <v>5.333333333333333</v>
+        <v>15</v>
       </c>
       <c r="V3" s="10" t="str">
         <f t="shared" ref="V3:V17" si="3">IF(U3&gt;85,"отлично",IF(U3&gt;70,"хорошо",IF(U3&gt;55,"удвл","неуд")))</f>
@@ -870,8 +871,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
-        <v>13</v>
+      <c r="J5" s="5">
+        <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>13</v>
@@ -894,16 +895,16 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="9">
         <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="2"/>
-        <v>4.666666666666667</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10">
         <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="V5" s="10" t="str">
         <f t="shared" si="3"/>
@@ -982,8 +983,8 @@
         <v>20</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
-        <v>13</v>
+      <c r="J7" s="5">
+        <v>2</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>13</v>
@@ -1006,16 +1007,16 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="9">
         <f t="shared" si="0"/>
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="S7" s="9">
         <f t="shared" si="2"/>
-        <v>5.333333333333333</v>
+        <v>33</v>
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10">
         <f t="shared" si="1"/>
-        <v>5.333333333333333</v>
+        <v>33</v>
       </c>
       <c r="V7" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1500,8 +1501,8 @@
         <v>20</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
-        <v>13</v>
+      <c r="J15" s="5">
+        <v>1</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>13</v>
@@ -1524,16 +1525,16 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="S15" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="V15" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1622,8 +1623,8 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
-        <v>13</v>
+      <c r="J17" s="5">
+        <v>1</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>13</v>
@@ -1646,16 +1647,16 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="S17" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>13.666666666666668</v>
       </c>
       <c r="T17" s="10"/>
       <c r="U17" s="10">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>13.666666666666668</v>
       </c>
       <c r="V17" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1673,19 +1674,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F13" sqref="E10:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1693,7 +1695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1701,7 +1703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1725,7 +1727,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ведомость_17.xlsx
+++ b/Ведомость_17.xlsx
@@ -591,7 +591,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S17"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +872,7 @@
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>13</v>
@@ -899,12 +899,12 @@
       </c>
       <c r="S5" s="9">
         <f t="shared" si="2"/>
-        <v>20.333333333333332</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10">
         <f t="shared" si="1"/>
-        <v>20.333333333333332</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="V5" s="10" t="str">
         <f t="shared" si="3"/>

--- a/Ведомость_17.xlsx
+++ b/Ведомость_17.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="34">
   <si>
     <t>ФИО</t>
   </si>
@@ -591,7 +591,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,9 +704,7 @@
       <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
@@ -719,16 +717,16 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="9">
         <f t="shared" ref="R2:R17" si="0">10-10*COUNTIF(B2:P2,"н")/(COUNTA(B2:P2)+COUNTBLANK(B2:P2))</f>
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="S2" s="9">
-        <f>IF(ISNUMBER(J2),J2,0)*9+(3*COUNTIF(E2:I2,"+"))+IF(ISNUMBER(P2),P2,0)*9+(3*COUNTIF(K2:O2,"+"))+R2+Q2</f>
-        <v>2</v>
+        <f>IF(ISNUMBER(J2),J2,0)*10+(3*COUNTIF(E2:I2,"+"))+IF(ISNUMBER(P2),P2,0)*10+(3*COUNTIF(K2:O2,"+"))+R2+Q2</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="10">
         <f t="shared" ref="U2:U17" si="1">S2+T2</f>
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="V2" s="10" t="str">
         <f>IF(U2&gt;85,"отлично",IF(U2&gt;70,"хорошо",IF(U2&gt;55,"удвл","неуд")))</f>
@@ -753,9 +751,7 @@
       <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
         <v>13</v>
       </c>
@@ -771,16 +767,16 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="S3" s="9">
-        <f t="shared" ref="S3:S17" si="2">IF(ISNUMBER(J3),J3,0)*9+(3*COUNTIF(E3:I3,"+"))+IF(ISNUMBER(P3),P3,0)*9+(3*COUNTIF(K3:O3,"+"))+R3+Q3</f>
-        <v>15</v>
+        <f t="shared" ref="S3:S17" si="2">IF(ISNUMBER(J3),J3,0)*10+(3*COUNTIF(E3:I3,"+"))+IF(ISNUMBER(P3),P3,0)*10+(3*COUNTIF(K3:O3,"+"))+R3+Q3</f>
+        <v>16.666666666666664</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="V3" s="10" t="str">
         <f t="shared" ref="V3:V17" si="3">IF(U3&gt;85,"отлично",IF(U3&gt;70,"хорошо",IF(U3&gt;55,"удвл","неуд")))</f>
@@ -875,13 +871,13 @@
         <v>2</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>13</v>
@@ -895,16 +891,16 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="9">
         <f t="shared" si="0"/>
-        <v>5.333333333333333</v>
+        <v>7.3333333333333339</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="2"/>
-        <v>29.333333333333332</v>
+        <v>42.333333333333336</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10">
         <f t="shared" si="1"/>
-        <v>29.333333333333332</v>
+        <v>42.333333333333336</v>
       </c>
       <c r="V5" s="10" t="str">
         <f t="shared" si="3"/>
@@ -928,15 +924,11 @@
       <c r="J6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
         <v>13</v>
       </c>
@@ -949,16 +941,16 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="9">
         <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" si="2"/>
-        <v>4.666666666666667</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10">
         <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="V6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -987,14 +979,10 @@
         <v>2</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1007,16 +995,16 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S7" s="9">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="V7" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1386,9 +1374,7 @@
       <c r="L13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1401,16 +1387,16 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="9">
         <f t="shared" si="0"/>
-        <v>0.66666666666666607</v>
+        <v>1.3333333333333339</v>
       </c>
       <c r="S13" s="9">
         <f t="shared" si="2"/>
-        <v>0.66666666666666607</v>
+        <v>1.3333333333333339</v>
       </c>
       <c r="T13" s="10"/>
       <c r="U13" s="10">
         <f t="shared" si="1"/>
-        <v>0.66666666666666607</v>
+        <v>1.3333333333333339</v>
       </c>
       <c r="V13" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1504,12 +1490,8 @@
       <c r="J15" s="5">
         <v>1</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1525,16 +1507,16 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="9">
         <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
+        <v>6</v>
       </c>
       <c r="S15" s="9">
         <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
+        <v>19</v>
       </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10">
         <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
+        <v>19</v>
       </c>
       <c r="V15" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1626,15 +1608,9 @@
       <c r="J17" s="5">
         <v>1</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="5" t="s">
         <v>13</v>
       </c>
@@ -1647,16 +1623,16 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="9">
         <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="S17" s="9">
         <f t="shared" si="2"/>
-        <v>13.666666666666668</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="T17" s="10"/>
       <c r="U17" s="10">
         <f t="shared" si="1"/>
-        <v>13.666666666666668</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="V17" s="10" t="str">
         <f t="shared" si="3"/>

--- a/Ведомость_17.xlsx
+++ b/Ведомость_17.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="34">
   <si>
     <t>ФИО</t>
   </si>
@@ -591,7 +591,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,9 +705,7 @@
         <v>13</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
         <v>13</v>
       </c>
@@ -717,16 +715,16 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="9">
         <f t="shared" ref="R2:R17" si="0">10-10*COUNTIF(B2:P2,"н")/(COUNTA(B2:P2)+COUNTBLANK(B2:P2))</f>
-        <v>2.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="S2" s="9">
         <f>IF(ISNUMBER(J2),J2,0)*10+(3*COUNTIF(E2:I2,"+"))+IF(ISNUMBER(P2),P2,0)*10+(3*COUNTIF(K2:O2,"+"))+R2+Q2</f>
-        <v>2.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="10">
         <f t="shared" ref="U2:U17" si="1">S2+T2</f>
-        <v>2.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="V2" s="10" t="str">
         <f>IF(U2&gt;85,"отлично",IF(U2&gt;70,"хорошо",IF(U2&gt;55,"удвл","неуд")))</f>
@@ -755,9 +753,7 @@
       <c r="M3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
         <v>13</v>
       </c>
@@ -767,16 +763,16 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="9">
         <f t="shared" si="0"/>
-        <v>6.6666666666666661</v>
+        <v>7.3333333333333339</v>
       </c>
       <c r="S3" s="9">
         <f t="shared" ref="S3:S17" si="2">IF(ISNUMBER(J3),J3,0)*10+(3*COUNTIF(E3:I3,"+"))+IF(ISNUMBER(P3),P3,0)*10+(3*COUNTIF(K3:O3,"+"))+R3+Q3</f>
-        <v>16.666666666666664</v>
+        <v>17.333333333333336</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10">
         <f t="shared" si="1"/>
-        <v>16.666666666666664</v>
+        <v>17.333333333333336</v>
       </c>
       <c r="V3" s="10" t="str">
         <f t="shared" ref="V3:V17" si="3">IF(U3&gt;85,"отлично",IF(U3&gt;70,"хорошо",IF(U3&gt;55,"удвл","неуд")))</f>
@@ -880,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>13</v>
@@ -891,16 +887,16 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="9">
         <f t="shared" si="0"/>
-        <v>7.3333333333333339</v>
+        <v>8</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="2"/>
-        <v>42.333333333333336</v>
+        <v>46</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10">
         <f t="shared" si="1"/>
-        <v>42.333333333333336</v>
+        <v>46</v>
       </c>
       <c r="V5" s="10" t="str">
         <f t="shared" si="3"/>
@@ -929,9 +925,7 @@
         <v>20</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N6" s="5"/>
       <c r="O6" s="5" t="s">
         <v>13</v>
       </c>
@@ -941,16 +935,16 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="9">
         <f t="shared" si="0"/>
-        <v>6.6666666666666661</v>
+        <v>7.3333333333333339</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" si="2"/>
-        <v>9.6666666666666661</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10">
         <f t="shared" si="1"/>
-        <v>9.6666666666666661</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="V6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -982,9 +976,11 @@
         <v>20</v>
       </c>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="N7" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>13</v>
@@ -995,16 +991,16 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="S7" s="9">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="V7" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1115,9 +1111,7 @@
       <c r="M9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N9" s="5"/>
       <c r="O9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1127,16 +1121,16 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="9">
         <f t="shared" si="0"/>
-        <v>0.66666666666666607</v>
+        <v>1.3333333333333339</v>
       </c>
       <c r="S9" s="9">
         <f t="shared" si="2"/>
-        <v>0.66666666666666607</v>
+        <v>1.3333333333333339</v>
       </c>
       <c r="T9" s="10"/>
       <c r="U9" s="10">
         <f t="shared" si="1"/>
-        <v>0.66666666666666607</v>
+        <v>1.3333333333333339</v>
       </c>
       <c r="V9" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1375,9 +1369,7 @@
         <v>13</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N13" s="5"/>
       <c r="O13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1387,16 +1379,16 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="9">
         <f t="shared" si="0"/>
-        <v>1.3333333333333339</v>
+        <v>2</v>
       </c>
       <c r="S13" s="9">
         <f t="shared" si="2"/>
-        <v>1.3333333333333339</v>
+        <v>2</v>
       </c>
       <c r="T13" s="10"/>
       <c r="U13" s="10">
         <f t="shared" si="1"/>
-        <v>1.3333333333333339</v>
+        <v>2</v>
       </c>
       <c r="V13" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1611,9 +1603,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N17" s="5"/>
       <c r="O17" s="5" t="s">
         <v>13</v>
       </c>
@@ -1623,16 +1613,16 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="9">
         <f t="shared" si="0"/>
-        <v>6.6666666666666661</v>
+        <v>7.3333333333333339</v>
       </c>
       <c r="S17" s="9">
         <f t="shared" si="2"/>
-        <v>16.666666666666664</v>
+        <v>17.333333333333336</v>
       </c>
       <c r="T17" s="10"/>
       <c r="U17" s="10">
         <f t="shared" si="1"/>
-        <v>16.666666666666664</v>
+        <v>17.333333333333336</v>
       </c>
       <c r="V17" s="10" t="str">
         <f t="shared" si="3"/>

--- a/Ведомость_17.xlsx
+++ b/Ведомость_17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18960" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="15120" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Ведомость" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="34">
   <si>
     <t>ФИО</t>
   </si>
@@ -591,7 +591,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,22 +709,20 @@
       <c r="O2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="9">
         <f t="shared" ref="R2:R17" si="0">10-10*COUNTIF(B2:P2,"н")/(COUNTA(B2:P2)+COUNTBLANK(B2:P2))</f>
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="S2" s="9">
         <f>IF(ISNUMBER(J2),J2,0)*10+(3*COUNTIF(E2:I2,"+"))+IF(ISNUMBER(P2),P2,0)*10+(3*COUNTIF(K2:O2,"+"))+R2+Q2</f>
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="10">
         <f t="shared" ref="U2:U17" si="1">S2+T2</f>
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="V2" s="10" t="str">
         <f>IF(U2&gt;85,"отлично",IF(U2&gt;70,"хорошо",IF(U2&gt;55,"удвл","неуд")))</f>
@@ -754,25 +752,23 @@
         <v>13</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>13</v>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5">
+        <v>3</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="9">
         <f t="shared" si="0"/>
-        <v>7.3333333333333339</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="S3" s="9">
         <f t="shared" ref="S3:S17" si="2">IF(ISNUMBER(J3),J3,0)*10+(3*COUNTIF(E3:I3,"+"))+IF(ISNUMBER(P3),P3,0)*10+(3*COUNTIF(K3:O3,"+"))+R3+Q3</f>
-        <v>17.333333333333336</v>
+        <v>48.666666666666664</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10">
         <f t="shared" si="1"/>
-        <v>17.333333333333336</v>
+        <v>48.666666666666664</v>
       </c>
       <c r="V3" s="10" t="str">
         <f t="shared" ref="V3:V17" si="3">IF(U3&gt;85,"отлично",IF(U3&gt;70,"хорошо",IF(U3&gt;55,"удвл","неуд")))</f>
@@ -879,28 +875,28 @@
         <v>20</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="P5" s="5">
+        <v>3</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>80.333333333333329</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>80.333333333333329</v>
       </c>
       <c r="V5" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>неуд</v>
+        <v>хорошо</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
@@ -926,25 +922,23 @@
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>13</v>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5">
+        <v>1</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="9">
         <f t="shared" si="0"/>
-        <v>7.3333333333333339</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" si="2"/>
-        <v>10.333333333333334</v>
+        <v>21.666666666666664</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10">
         <f t="shared" si="1"/>
-        <v>10.333333333333334</v>
+        <v>21.666666666666664</v>
       </c>
       <c r="V6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -983,28 +977,28 @@
         <v>20</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="P7" s="5">
+        <v>3</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="9">
         <f t="shared" si="0"/>
-        <v>8.6666666666666661</v>
+        <v>10</v>
       </c>
       <c r="S7" s="9">
         <f t="shared" si="2"/>
-        <v>46.666666666666664</v>
+        <v>81</v>
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10">
         <f t="shared" si="1"/>
-        <v>46.666666666666664</v>
+        <v>81</v>
       </c>
       <c r="V7" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>неуд</v>
+        <v>хорошо</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
@@ -1490,25 +1484,23 @@
       <c r="N15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>13</v>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5">
+        <v>1</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7.3333333333333339</v>
       </c>
       <c r="S15" s="9">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>30.333333333333336</v>
       </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>30.333333333333336</v>
       </c>
       <c r="V15" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1605,24 +1597,24 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="P17" s="5">
+        <v>2</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="9">
         <f t="shared" si="0"/>
-        <v>7.3333333333333339</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="S17" s="9">
         <f t="shared" si="2"/>
-        <v>17.333333333333336</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="T17" s="10"/>
       <c r="U17" s="10">
         <f t="shared" si="1"/>
-        <v>17.333333333333336</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="V17" s="10" t="str">
         <f t="shared" si="3"/>
